--- a/Sprint_Backlog_Template.xlsx
+++ b/Sprint_Backlog_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Elshazly/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDFE854-596C-D84F-AEE0-3758A71BBE7F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECB08CC-65A4-184C-A89A-720119D49414}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="27140" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>User story</t>
   </si>
@@ -70,47 +70,173 @@
     <t>As a life coach I should be able to post my weekly schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">Georges Khalil </t>
-  </si>
-  <si>
-    <t>Dareen Attallah</t>
-  </si>
-  <si>
-    <t>Haidy Hany</t>
-  </si>
-  <si>
-    <t>Khaled Ahmed</t>
-  </si>
-  <si>
-    <t>mohamed teiby</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Farida &amp; mayar</t>
-  </si>
-  <si>
-    <t>Ahmed  Elshazly</t>
-  </si>
-  <si>
-    <t>Ahmed Yehia</t>
-  </si>
-  <si>
-    <t>Claudia &amp; fatma</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>As a member I should be able to view life coach available slots and updated schedule</t>
-  </si>
-  <si>
-    <t>As a partner I should be able to submit description of project/task and access description</t>
+    <t>Task submission</t>
+  </si>
+  <si>
+    <t>Task negotiation</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to accept and schedule a meeting / decline concerning the posted project</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to accept to arrange a meeting / cancel project</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to define project required skills with a set of attributes (Time, skills, etc…..)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a partner I should be able to choose to have a consultant or not </t>
+  </si>
+  <si>
+    <t>As a partner I should be able to provide detailed description in case of no consulatancy</t>
+  </si>
+  <si>
+    <t>Consultant assignment</t>
+  </si>
+  <si>
+    <t>As a choosen consultant I should be able to accept the project by submitting a detailed plan or reject</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to choose a specific consultant or have it assigned randomly</t>
+  </si>
+  <si>
+    <t>As a partner I should be  able to accept schdeule negotitation meeting /decline consultant's plan</t>
+  </si>
+  <si>
+    <t>As a consultatnt I should be able to accept meeting arrangement or withdraw from the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freenlancer Assignment </t>
+  </si>
+  <si>
+    <t>As a candidate I should be  able to view and search all posted tasks and view recommended tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a candidate I should be able to apply for tasks that I am eligible and certified for </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an admin I should be able to choose the freelancer that would be assigned </t>
+  </si>
+  <si>
+    <t>As an accepted candidate I should be able to get a notification and an orientation for the task</t>
+  </si>
+  <si>
+    <t>Project Lifecycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a consulant I should be  able to confirm or propose edits for the freelancer's work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a contributor I should be able to view the project progress bar </t>
+  </si>
+  <si>
+    <t>As a partner I should be able to confirm or propose edit on project's updates</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to Register/login/logout/deactivate/delete/edit my account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to choose profile type while registering </t>
+  </si>
+  <si>
+    <t>As a user I should be notified by location and time to sign contract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to show my notifcations </t>
+  </si>
+  <si>
+    <t>As a user I should be able to to show my profile</t>
+  </si>
+  <si>
+    <t>As a user i should see the signed contracnt and the validity of the membership</t>
+  </si>
+  <si>
+    <t>As a consultancy agency I could view basic information/board members/partners/evetns  by agency/reports &amp;studies</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to view basic information/board members/partners/evetns by agency/field of work</t>
+  </si>
+  <si>
+    <t>As a partner I should be able to view past projects/suggest feedback</t>
+  </si>
+  <si>
+    <t>As a user I should be able to to show my attended events</t>
+  </si>
+  <si>
+    <t>As a user I should be able to to show my completed projects and reviews received and by whom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I should be able to to show my certficates and masterclasses </t>
+  </si>
+  <si>
+    <t>Life Coach reservation</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Mayar</t>
+  </si>
+  <si>
+    <t>Khaled</t>
+  </si>
+  <si>
+    <t>Haidy</t>
+  </si>
+  <si>
+    <t>Yahia</t>
+  </si>
+  <si>
+    <t>Farida</t>
+  </si>
+  <si>
+    <t>farida</t>
+  </si>
+  <si>
+    <t>Tieby</t>
+  </si>
+  <si>
+    <t>Shazly</t>
+  </si>
+  <si>
+    <t>Dareen</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>3.1 OR NA</t>
+  </si>
+  <si>
+    <t>4.1 OR NA MSH M3NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>As a freelancer I should be able to submit my project</t>
+  </si>
+  <si>
+    <t>shazly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +253,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -159,12 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -541,183 +675,719 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>7.2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>7.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>7.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>6</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>6.6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>6.11</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>7</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E41">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
         <v>7.7</v>
       </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
